--- a/election_votar_data/LOHAGARA/KALAUZAN/152572/152572_com_997_male_without_photo_57_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152572/152572_com_997_male_without_photo_57_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="38.5" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -19358,37 +19358,37 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>০৫২৯</t>
+          <t>০৫২৬</t>
         </is>
       </c>
       <c r="B451" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফরহাদ হোসেন</t>
+          <t>আবদুল শুকুর</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০১৭৩</t>
+          <t>১৫২৫৭২০০০১৬৩</t>
         </is>
       </c>
       <c r="D451" s="4" t="inlineStr">
         <is>
-          <t>কামরুল ইসলাম</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E451" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F451" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G451" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৯০</t>
+          <t>০৬/১১/১৯৭৭</t>
         </is>
       </c>
       <c r="H451" s="5" t="inlineStr">
@@ -19400,37 +19400,37 @@
     <row r="452">
       <c r="A452" s="3" t="inlineStr">
         <is>
-          <t>০৫২৬</t>
+          <t>০৫২৯</t>
         </is>
       </c>
       <c r="B452" s="4" t="inlineStr">
         <is>
-          <t>আবদুল শুকুর</t>
+          <t>মোহাম্মদ ফরহাদ হোসেন</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০১৬৩</t>
+          <t>১৫২৫৭২০০০১৭৩</t>
         </is>
       </c>
       <c r="D452" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>কামরুল ইসলাম</t>
         </is>
       </c>
       <c r="E452" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F452" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G452" s="3" t="inlineStr">
         <is>
-          <t>০৬/১১/১৯৭৭</t>
+          <t>০১/০২/১৯৯০</t>
         </is>
       </c>
       <c r="H452" s="5" t="inlineStr">
@@ -19694,227 +19694,227 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>০৮৫৩</t>
+          <t>০৮০৭</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
         <is>
-          <t>আরফাতুল ইসলাম</t>
+          <t>মোস্তফা কামাল রিফাত</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৪২</t>
+          <t>১৫২৫৭২০০০৫৮৮</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>শফর মুল্লুক</t>
+          <t>রফিক আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="E459" s="4" t="inlineStr">
         <is>
-          <t>শজুকন নাহার বেগম</t>
+          <t>নুরুম্মাহার বেগম</t>
         </is>
       </c>
       <c r="F459" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G459" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/২০০৬</t>
+          <t>০২/০৬/২০০২</t>
         </is>
       </c>
       <c r="H459" s="5" t="inlineStr">
         <is>
-          <t>২৭৭, দর্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৬৫, দর্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>০৭৬৭</t>
+          <t>০৮৫৩</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরিফুল ইসলাম</t>
+          <t>আরফাতুল ইসলাম</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৫৪১</t>
+          <t>১৫২৫৭২০০০৬৪২</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>শামশুল ইসলাম</t>
+          <t>শফর মুল্লুক</t>
         </is>
       </c>
       <c r="E460" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>শজুকন নাহার বেগম</t>
         </is>
       </c>
       <c r="F460" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G460" s="3" t="inlineStr">
         <is>
-          <t>১১/০১/২০০১</t>
+          <t>০১/১০/২০০৬</t>
         </is>
       </c>
       <c r="H460" s="5" t="inlineStr">
         <is>
-          <t>১৭৪, দর্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৭, দর্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>০১৪২</t>
+          <t>০৭৯৩</t>
         </is>
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমদ</t>
+          <t>আবু ওমর</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৪৩</t>
+          <t>১৫২৫৭২০০০৫৭০</t>
         </is>
       </c>
       <c r="D461" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>মোহাম্মদ মুছা</t>
         </is>
       </c>
       <c r="E461" s="4" t="inlineStr">
         <is>
-          <t>মাহমুনা খাতুন</t>
+          <t>জুনি আরা বেগম</t>
         </is>
       </c>
       <c r="F461" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G461" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৫৭</t>
+          <t>০২/০১/২০০২</t>
         </is>
       </c>
       <c r="H461" s="5" t="inlineStr">
         <is>
-          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭৬, দর্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
         <is>
-          <t>০১৩৫</t>
+          <t>০৭৬৭</t>
         </is>
       </c>
       <c r="B462" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বশির আহমেদ সিকদার</t>
+          <t>মোহাম্মদ আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮১৭</t>
+          <t>১৫২৫৭২০০০৫৪১</t>
         </is>
       </c>
       <c r="D462" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>শামশুল ইসলাম</t>
         </is>
       </c>
       <c r="E462" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা খাতুন</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F462" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G462" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/১৯৬১</t>
+          <t>১১/০১/২০০১</t>
         </is>
       </c>
       <c r="H462" s="5" t="inlineStr">
         <is>
-          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭৪, দর্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>০১৫৫</t>
+          <t>০৭২২</t>
         </is>
       </c>
       <c r="B463" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফরিদুল ইসলাম</t>
+          <t>আরফাত সিকদার</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৫৬</t>
+          <t>১৫২৫৭২০০০৪৬০</t>
         </is>
       </c>
       <c r="D463" s="4" t="inlineStr">
         <is>
-          <t>ফৌজুল কবির</t>
+          <t>মোঃ বশির আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="E463" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F463" s="3" t="inlineStr">
         <is>
-          <t>শিক্ষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G463" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৫/১৯৮৫</t>
+          <t>১৬/০২/১৯৯৪</t>
         </is>
       </c>
       <c r="H463" s="5" t="inlineStr">
         <is>
-          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জিপাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>০১৪৬</t>
+          <t>০১৩৫</t>
         </is>
       </c>
       <c r="B464" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শফিক আহমদ</t>
+          <t>মোঃ বশির আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৪৭</t>
+          <t>১৫২৫৭২১৫৮৮১৭</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
@@ -19924,17 +19924,17 @@
       </c>
       <c r="E464" s="4" t="inlineStr">
         <is>
-          <t>মাহমুনা খাতুন</t>
+          <t>মাইমুনা খাতুন</t>
         </is>
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
         <is>
-          <t>০৪/০১/১৯৬৪</t>
+          <t>১০/১০/১৯৬১</t>
         </is>
       </c>
       <c r="H464" s="5" t="inlineStr">
@@ -19946,27 +19946,27 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>০১৩৭</t>
+          <t>০১৪২</t>
         </is>
       </c>
       <c r="B465" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ উল্লাহ</t>
+          <t>কবির আহমদ</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮২৬</t>
+          <t>১৫২৫৭২১৫৮৮৪৩</t>
         </is>
       </c>
       <c r="D465" s="4" t="inlineStr">
         <is>
-          <t>ছারামত আলী</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E465" s="4" t="inlineStr">
         <is>
-          <t>মোহলেনা খাতুন</t>
+          <t>মাহমুনা খাতুন</t>
         </is>
       </c>
       <c r="F465" s="3" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="G465" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৬১</t>
+          <t>১২/০৩/১৯৫৭</t>
         </is>
       </c>
       <c r="H465" s="5" t="inlineStr">
@@ -19988,37 +19988,37 @@
     <row r="466">
       <c r="A466" s="3" t="inlineStr">
         <is>
-          <t>০১৬৪</t>
+          <t>০১৫৫</t>
         </is>
       </c>
       <c r="B466" s="4" t="inlineStr">
         <is>
-          <t>আব্বাস আলী</t>
+          <t>মোঃ ফরিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৮৪</t>
+          <t>১৫২৫৭২১৫৮৮৫৬</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>ফৌজুল কবির</t>
         </is>
       </c>
       <c r="E466" s="4" t="inlineStr">
         <is>
-          <t>জন্নত আরা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F466" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>শিক্ষক</t>
         </is>
       </c>
       <c r="G466" s="3" t="inlineStr">
         <is>
-          <t>১২/০৫/১৯৮৬</t>
+          <t>০৯/০৫/১৯৮৫</t>
         </is>
       </c>
       <c r="H466" s="5" t="inlineStr">
@@ -20030,37 +20030,37 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>০১৪৫</t>
+          <t>০১৩৭</t>
         </is>
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>শাহজাহান বাদশা</t>
+          <t>মোহাম্মদ উল্লাহ</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৪৬</t>
+          <t>১৫২৫৭২১৫৮৮২৬</t>
         </is>
       </c>
       <c r="D467" s="4" t="inlineStr">
         <is>
-          <t>আমিনুল হক</t>
+          <t>ছারামত আলী</t>
         </is>
       </c>
       <c r="E467" s="4" t="inlineStr">
         <is>
-          <t>বিলকিছ আরা বেগম</t>
+          <t>মোহলেনা খাতুন</t>
         </is>
       </c>
       <c r="F467" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G467" s="3" t="inlineStr">
         <is>
-          <t>১২/১২/১৯৮৬</t>
+          <t>১২/০৩/১৯৬১</t>
         </is>
       </c>
       <c r="H467" s="5" t="inlineStr">
@@ -20072,37 +20072,37 @@
     <row r="468">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>০১৩৪</t>
+          <t>০১৪৬</t>
         </is>
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউচ্চ</t>
+          <t>মোঃ শফিক আহমদ</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮১৪</t>
+          <t>১৫২৫৭২১৫৮৮৪৭</t>
         </is>
       </c>
       <c r="D468" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E468" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>মাহমুনা খাতুন</t>
         </is>
       </c>
       <c r="F468" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G468" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৮২</t>
+          <t>০৪/০১/১৯৬৪</t>
         </is>
       </c>
       <c r="H468" s="5" t="inlineStr">
@@ -20114,37 +20114,37 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>০১৩৬</t>
+          <t>০১৪৫</t>
         </is>
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>রফিক আহমেদ সিকদার</t>
+          <t>শাহজাহান বাদশা</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮২১</t>
+          <t>১৫২৫৭২১৫৮৮৪৬</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>আমিনুল হক</t>
         </is>
       </c>
       <c r="E469" s="4" t="inlineStr">
         <is>
-          <t>মায়মুনা খাতুন</t>
+          <t>বিলকিছ আরা বেগম</t>
         </is>
       </c>
       <c r="F469" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G469" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬৫</t>
+          <t>১২/১২/১৯৮৬</t>
         </is>
       </c>
       <c r="H469" s="5" t="inlineStr">
@@ -20156,37 +20156,37 @@
     <row r="470">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>০১৩৮</t>
+          <t>০১৩৪</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুছা</t>
+          <t>মোহাম্মদ ইউচ্চ</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৩২</t>
+          <t>১৫২৫৭২১৫৮৮১৪</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সোলায়মান</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E470" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F470" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G470" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৫/১৯৬২</t>
+          <t>১৫/০২/১৯৮২</t>
         </is>
       </c>
       <c r="H470" s="5" t="inlineStr">
@@ -20198,37 +20198,37 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>০১৬৬</t>
+          <t>০১৬৪</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
         <is>
-          <t>কমরুল ইসলাম</t>
+          <t>আব্বাস আলী</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৮৬</t>
+          <t>১৫২৫৭২১৫৮৮৮৪</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>এনায়েত আলী</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>সোয়াজান</t>
+          <t>জন্নত আরা বেগম</t>
         </is>
       </c>
       <c r="F471" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G471" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৫৭</t>
+          <t>১২/০৫/১৯৮৬</t>
         </is>
       </c>
       <c r="H471" s="5" t="inlineStr">
@@ -20240,27 +20240,27 @@
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
         <is>
-          <t>০১৬৭</t>
+          <t>০১৩৮</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ তাজুল ইসলাম</t>
+          <t>মোহাম্মদ মুছা</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৮৭</t>
+          <t>১৫২৫৭২১৫৮৮৩২</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>কমরুল ইসলাম</t>
+          <t>মোঃ সোলায়মান</t>
         </is>
       </c>
       <c r="E472" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F472" s="3" t="inlineStr">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="G472" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/১৯৮৭</t>
+          <t>১৩/০৫/১৯৬২</t>
         </is>
       </c>
       <c r="H472" s="5" t="inlineStr">
@@ -20282,37 +20282,37 @@
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>০১৭২</t>
+          <t>০১৩৬</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>সফর মুল্লুক</t>
+          <t>রফিক আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৯১০</t>
+          <t>১৫২৫৭২১৫৮৮২১</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>সোলেমান</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E473" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>মায়মুনা খাতুন</t>
         </is>
       </c>
       <c r="F473" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G473" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৬৭</t>
+          <t>০১/০২/১৯৬৫</t>
         </is>
       </c>
       <c r="H473" s="5" t="inlineStr">
@@ -20324,37 +20324,37 @@
     <row r="474">
       <c r="A474" s="3" t="inlineStr">
         <is>
-          <t>০১৭৭</t>
+          <t>০১৬৬</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
         <is>
-          <t>সাতার সিকদার</t>
+          <t>কমরুল ইসলাম</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৯১৭</t>
+          <t>১৫২৫৭২১৫৮৮৮৬</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ সিকদার</t>
+          <t>এনায়েত আলী</t>
         </is>
       </c>
       <c r="E474" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>সোয়াজান</t>
         </is>
       </c>
       <c r="F474" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G474" s="3" t="inlineStr">
         <is>
-          <t>১১/০৫/১৯৭৪</t>
+          <t>১২/০২/১৯৫৭</t>
         </is>
       </c>
       <c r="H474" s="5" t="inlineStr">
@@ -20408,168 +20408,168 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>০৬১৭</t>
+          <t>০১৬৭</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
         <is>
-          <t>সাদাম হোছাইন</t>
+          <t>মুহাম্মদ তাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৬৯</t>
+          <t>১৫২৫৭২১৫৮৮৮৭</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ</t>
+          <t>কমরুল ইসলাম</t>
         </is>
       </c>
       <c r="E476" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F476" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G476" s="3" t="inlineStr">
         <is>
-          <t>২২/১২/১৯৯৫</t>
+          <t>০৮/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H476" s="5" t="inlineStr">
         <is>
-          <t>., দর্জিস পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>০৮০৭</t>
+          <t>০১৭৭</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা কামাল রিফাত</t>
+          <t>সাতার সিকদার</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৫৮৮</t>
+          <t>১৫২৫৭২১৫৮৯১৭</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>রফিক আহমেদ সিকদার</t>
+          <t>আলী আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="E477" s="4" t="inlineStr">
         <is>
-          <t>নুরুম্মাহার বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/২০০২</t>
+          <t>১১/০৫/১৯৭৪</t>
         </is>
       </c>
       <c r="H477" s="5" t="inlineStr">
         <is>
-          <t>১৬৫, দার্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>০৭৯৩</t>
+          <t>০১৭২</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>আবু ওমর</t>
+          <t>সফর মুল্লুক</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৫৭০</t>
+          <t>১৫২৫৭২১৫৮৯১০</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুছা</t>
+          <t>সোলেমান</t>
         </is>
       </c>
       <c r="E478" s="4" t="inlineStr">
         <is>
-          <t>জুনি আরা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>দার্জি</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/২০০২</t>
+          <t>১০/০২/১৯৬৭</t>
         </is>
       </c>
       <c r="H478" s="5" t="inlineStr">
         <is>
-          <t>১৭৬, দার্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>০৭২২</t>
+          <t>০৬১৭</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>আরফাত সিকদার</t>
+          <t>সাদাম হোছাইন</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৪৬০</t>
+          <t>১৫২৫৭২০০০২৬৯</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বশির আহমেদ সিকদার</t>
+          <t>আলী আহমেদ</t>
         </is>
       </c>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G479" s="3" t="inlineStr">
         <is>
-          <t>১৬/০২/১৯৯৪</t>
+          <t>২২/১২/১৯৯৫</t>
         </is>
       </c>
       <c r="H479" s="5" t="inlineStr">
         <is>
-          <t>দার্জিপাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., দর্জিস পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -20618,37 +20618,37 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০২৫২</t>
+          <t>০২৮৫</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>নাজিম উদ্দীন</t>
+          <t>মজিবুর রহমান</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৬৫</t>
+          <t>১৫২৫৭২১৫৯২৫৫</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>বদিউল আলম</t>
+          <t>মকবুল আহমদ</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>আচিয়া বেগম</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৭৯</t>
+          <t>০১/০১/১৯৬৯</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,37 +20660,37 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০২৫৩</t>
+          <t>০২৫৫</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>রেজাউল হক</t>
+          <t>মোহাম্মদ আবুল বশর</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৬৯</t>
+          <t>১৫২৫৭২১৫৯১৭৬</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মকবুল আহমেদ</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>জাহেদা বেগম</t>
+          <t>আঁচিয়া খাতুন</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯০</t>
+          <t>০১/০৩/১৯৭৫</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,37 +20702,37 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০২৫৪</t>
+          <t>০২৫৩</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দিন</t>
+          <t>রেজাউল হক</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৭০</t>
+          <t>১৫২৫৭২১৫৯১৬৯</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>ফরোখ আহমেদ</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>মাহবুবা বেগম</t>
+          <t>জাহেদা বেগম</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৭০</t>
+          <t>০১/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
@@ -20744,37 +20744,37 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>০২৫৫</t>
+          <t>০২৫২</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল বশর</t>
+          <t>নাজিম উদ্দীন</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৭৬</t>
+          <t>১৫২৫৭২১৫৯১৬৫</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>মকবুল আহমেদ</t>
+          <t>বদিউল আলম</t>
         </is>
       </c>
       <c r="E484" s="4" t="inlineStr">
         <is>
-          <t>আঁচিয়া খাতুন</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৭৫</t>
+          <t>০১/০৬/১৯৭৯</t>
         </is>
       </c>
       <c r="H484" s="5" t="inlineStr">
@@ -20786,37 +20786,37 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>০২৮৫</t>
+          <t>০২৫৪</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
-          <t>মজিবুর রহমান</t>
+          <t>নাছির উদ্দিন</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯২৫৫</t>
+          <t>১৫২৫৭২১৫৯১৭০</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>মকবুল আহমদ</t>
+          <t>ফরোখ আহমেদ</t>
         </is>
       </c>
       <c r="E485" s="4" t="inlineStr">
         <is>
-          <t>আচিয়া বেগম</t>
+          <t>মাহবুবা বেগম</t>
         </is>
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৬৯</t>
+          <t>০১/০৭/১৯৭০</t>
         </is>
       </c>
       <c r="H485" s="5" t="inlineStr">
@@ -20912,37 +20912,37 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>০২৭২</t>
+          <t>০৬৪৪</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>মোহাং ইছমাইল</t>
+          <t>মুহাম্মদ আনাস</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯২৩১</t>
+          <t>১৫২৫৭২০০০৩১১</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>কালা মিয়া</t>
+          <t>ছিদিক আহমদ</t>
         </is>
       </c>
       <c r="E488" s="4" t="inlineStr">
         <is>
-          <t>ছমুদা বেগম</t>
+          <t>শিরিন আক্তার</t>
         </is>
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G488" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৭/১৯৬২</t>
+          <t>১১/১১/১৯৯৮</t>
         </is>
       </c>
       <c r="H488" s="5" t="inlineStr">
@@ -20954,37 +20954,37 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>০৬৪৪</t>
+          <t>০২৭২</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আনাস</t>
+          <t>মোহাং ইছমাইল</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৩১১</t>
+          <t>১৫২৫৭২১৫৯২৩১</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>ছিদিক আহমদ</t>
+          <t>কালা মিয়া</t>
         </is>
       </c>
       <c r="E489" s="4" t="inlineStr">
         <is>
-          <t>শিরিন আক্তার</t>
+          <t>ছমুদা বেগম</t>
         </is>
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
         <is>
-          <t>১১/১১/১৯৯৮</t>
+          <t>০৩/০৭/১৯৬২</t>
         </is>
       </c>
       <c r="H489" s="5" t="inlineStr">
@@ -20996,17 +20996,17 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>০৮১১</t>
+          <t>০৮১২</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আকিল</t>
+          <t>মোহাম্মদ সাকিব</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২৬৪৭১২৬</t>
+          <t>১৫২৫৭২৬৪৭১২৭</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="G490" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৬</t>
+          <t>০৫/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H490" s="5" t="inlineStr">
@@ -21038,17 +21038,17 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>০৮১২</t>
+          <t>০৮১১</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাকিব</t>
+          <t>মোহাম্মদ আকিল</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২৬৪৭১২৭</t>
+          <t>১৫২৫৭২৬৪৭১২৬</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="G491" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৯৭</t>
+          <t>০১/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="H491" s="5" t="inlineStr">
@@ -21710,69 +21710,69 @@
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>০৮৫২</t>
+          <t>০৮২৫</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
         <is>
-          <t>নিতাই কান্তি নাথ</t>
+          <t>হদয় কান্তি নাথ</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৪০</t>
+          <t>১৫২৫৭২০০০০৫৯৮</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>সুবীর কান্তি নাথ</t>
+          <t>সুধীর কান্তি নাথ</t>
         </is>
       </c>
       <c r="E507" s="4" t="inlineStr">
         <is>
-          <t>লিলি বালা নাথ</t>
+          <t>অর্চনা নাথ</t>
         </is>
       </c>
       <c r="F507" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিষ্টি</t>
         </is>
       </c>
       <c r="G507" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/২০০৬</t>
+          <t>০১/০২/২০০৪</t>
         </is>
       </c>
       <c r="H507" s="5" t="inlineStr">
         <is>
-          <t>৪২, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
         <is>
-          <t>০৬৩১</t>
+          <t>০৮১৭</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>রাসেল নাথ</t>
+          <t>আকাশ কান্তি সমদার</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৮৮</t>
+          <t>১৫২৫৭২০০০০০৫৪</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>পরিমল কান্তি নাথ</t>
+          <t>অরুণ সমদার</t>
         </is>
       </c>
       <c r="E508" s="4" t="inlineStr">
         <is>
-          <t>জনু বালা নাথ</t>
+          <t>কৃষ্ণা সমদার</t>
         </is>
       </c>
       <c r="F508" s="3" t="inlineStr">
@@ -21782,39 +21782,39 @@
       </c>
       <c r="G508" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৯৬</t>
+          <t>১০/০১/২০০৫</t>
         </is>
       </c>
       <c r="H508" s="5" t="inlineStr">
         <is>
-          <t>নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪১, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>০৮৬০</t>
+          <t>০৬৩১</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
         <is>
-          <t>নয়ন কান্তি নাথ</t>
+          <t>রাসেল নাথ</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৫০</t>
+          <t>১৫২৫৭২০০০২৮৮</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>মিলন কান্তি নাথ</t>
+          <t>পরিমল কান্তি নাথ</t>
         </is>
       </c>
       <c r="E509" s="4" t="inlineStr">
         <is>
-          <t>মেরী নাথ</t>
+          <t>জনু বালা নাথ</t>
         </is>
       </c>
       <c r="F509" s="3" t="inlineStr">
@@ -21824,96 +21824,96 @@
       </c>
       <c r="G509" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/২০০৬</t>
+          <t>১০/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="H509" s="5" t="inlineStr">
         <is>
-          <t>৪১, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="3" t="inlineStr">
         <is>
-          <t>০৮৬১</t>
+          <t>০৮৮০</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
         <is>
-          <t>জয়েল কান্তি নাথ</t>
+          <t>কার্তিক কান্তি নাথ</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৫২</t>
+          <t>১৫২৫৭২৬৪৭১৪৬</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>কৃষ্ণ হরি নাথ</t>
+          <t>বিমল কান্তি নাথ</t>
         </is>
       </c>
       <c r="E510" s="4" t="inlineStr">
         <is>
-          <t>নিয়তী বালা নাথ</t>
+          <t>মঞ্জু বালা নাথ</t>
         </is>
       </c>
       <c r="F510" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G510" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/২০০৬</t>
+          <t>১২/০৩/২০০১</t>
         </is>
       </c>
       <c r="H510" s="5" t="inlineStr">
         <is>
-          <t>৪৯, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১০, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>০৮২৫</t>
+          <t>০৮৬১</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
         <is>
-          <t>হদয় কান্তি নাথ</t>
+          <t>জয়েল কান্তি নাথ</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০৫৯৮</t>
+          <t>১৫২৫৭২০০০৬৫২</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>সুধীর কান্তি নাথ</t>
+          <t>কৃষ্ণ হরি নাথ</t>
         </is>
       </c>
       <c r="E511" s="4" t="inlineStr">
         <is>
-          <t>অর্চনা নাথ</t>
+          <t>নিয়তী বালা নাথ</t>
         </is>
       </c>
       <c r="F511" s="3" t="inlineStr">
         <is>
-          <t>মিষ্টি</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G511" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/২০০৪</t>
+          <t>০২/০৮/২০০৬</t>
         </is>
       </c>
       <c r="H511" s="5" t="inlineStr">
         <is>
-          <t>৫, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৯, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21962,27 +21962,27 @@
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>০৮১৭</t>
+          <t>০৮৬০</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>আকাশ কান্তি সমদার</t>
+          <t>নয়ন কান্তি নাথ</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০০৫৪</t>
+          <t>১৫২৫৭২০০০৬৫০</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>অরুণ সমদার</t>
+          <t>মিলন কান্তি নাথ</t>
         </is>
       </c>
       <c r="E513" s="4" t="inlineStr">
         <is>
-          <t>কৃষ্ণা সমদার</t>
+          <t>মেরী নাথ</t>
         </is>
       </c>
       <c r="F513" s="3" t="inlineStr">
@@ -21992,7 +21992,7 @@
       </c>
       <c r="G513" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/২০০৫</t>
+          <t>০১/০৬/২০০৬</t>
         </is>
       </c>
       <c r="H513" s="5" t="inlineStr">
@@ -22004,126 +22004,126 @@
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>০৮৮০</t>
+          <t>০৮৫২</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>কার্তিক কান্তি নাথ</t>
+          <t>নিতাই কান্তি নাথ</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২৬৪৭১৪৬</t>
+          <t>১৫২৫৭২০০০৬৪০</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>বিমল কান্তি নাথ</t>
+          <t>সুবীর কান্তি নাথ</t>
         </is>
       </c>
       <c r="E514" s="4" t="inlineStr">
         <is>
-          <t>মঞ্জু বালা নাথ</t>
+          <t>লিলি বালা নাথ</t>
         </is>
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/২০০১</t>
+          <t>০১/০৫/২০০৬</t>
         </is>
       </c>
       <c r="H514" s="5" t="inlineStr">
         <is>
-          <t>১০, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪২, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>০৯৩২</t>
+          <t>০৬৯৬</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>মিশাল কান্তি নাথ</t>
+          <t>রফেল নাথ</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০৬৭৭</t>
+          <t>১৫২৫৭২০০০০৮১৬</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>মুদুল কান্তি নাথ</t>
+          <t>ব্রজহরি নাথ</t>
         </is>
       </c>
       <c r="E515" s="4" t="inlineStr">
         <is>
-          <t>কুসুম বালা দেবী</t>
+          <t>মিত্রা বালা নাথ</t>
         </is>
       </c>
       <c r="F515" s="3" t="inlineStr">
         <is>
-          <t>ড্রাইভার</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G515" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/২০০৬</t>
+          <t>১৭/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="H515" s="5" t="inlineStr">
         <is>
-          <t>৪৭, নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>০৬৯৬</t>
+          <t>০৯৩২</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>রফেল নাথ</t>
+          <t>মিশাল কান্তি নাথ</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০৮১৬</t>
+          <t>১৫২৫৭২০০০০৬৭৭</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>ব্রজহরি নাথ</t>
+          <t>মুদুল কান্তি নাথ</t>
         </is>
       </c>
       <c r="E516" s="4" t="inlineStr">
         <is>
-          <t>মিত্রা বালা নাথ</t>
+          <t>কুসুম বালা দেবী</t>
         </is>
       </c>
       <c r="F516" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ড্রাইভার</t>
         </is>
       </c>
       <c r="G516" s="3" t="inlineStr">
         <is>
-          <t>১৭/০১/১৯৯৯</t>
+          <t>০৩/০৬/২০০৬</t>
         </is>
       </c>
       <c r="H516" s="5" t="inlineStr">
         <is>
-          <t>নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৭, নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -22172,27 +22172,27 @@
     <row r="518">
       <c r="A518" s="3" t="inlineStr">
         <is>
-          <t>০২২২</t>
+          <t>০২২১</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ গোলাম রাছুন</t>
+          <t>মোহাঃ আবদুল খালেক</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯০৭৭</t>
+          <t>১৫২৫৭২১৫৯০৭৬</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ উমর মিয়া</t>
+          <t>আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E518" s="4" t="inlineStr">
         <is>
-          <t>বেলওয়া খাতুন</t>
+          <t>হাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F518" s="3" t="inlineStr">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="G518" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৫/১৯৭৫</t>
+          <t>১৪/০৫/১৯৬২</t>
         </is>
       </c>
       <c r="H518" s="5" t="inlineStr">
@@ -22214,27 +22214,27 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>০২২১</t>
+          <t>০২২২</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ আবদুল খালেক</t>
+          <t>মোহাঃ গোলাম রাছুন</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯০৭৬</t>
+          <t>১৫২৫৭২১৫৯০৭৭</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>আজিজুর রহমান</t>
+          <t>মোহাঃ উমর মিয়া</t>
         </is>
       </c>
       <c r="E519" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া খাতুন</t>
+          <t>বেলওয়া খাতুন</t>
         </is>
       </c>
       <c r="F519" s="3" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="G519" s="3" t="inlineStr">
         <is>
-          <t>১৪/০৫/১৯৬২</t>
+          <t>২৮/০৫/১৯৭৫</t>
         </is>
       </c>
       <c r="H519" s="5" t="inlineStr">
@@ -22466,37 +22466,37 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>০৬২১</t>
+          <t>০৬১৯</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহীম</t>
+          <t>আবদুচ ছব্বর</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৭৪</t>
+          <t>১৫২৫৭২০০০২৭১</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E525" s="4" t="inlineStr">
         <is>
-          <t>আলমাহ খাতুন</t>
+          <t>কমরুলহার</t>
         </is>
       </c>
       <c r="F525" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G525" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/১৯৮৬</t>
+          <t>০১/০১/১৯৯৪</t>
         </is>
       </c>
       <c r="H525" s="5" t="inlineStr">
@@ -22508,69 +22508,69 @@
     <row r="526">
       <c r="A526" s="3" t="inlineStr">
         <is>
-          <t>০৬০৪</t>
+          <t>০৬২১</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল হাশেম</t>
+          <t>মোহাম্মদ ইব্রাহীম</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৪৭</t>
+          <t>১৫২৫৭২০০০২৭৪</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>ঠান্ডা মিয়া</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="E526" s="4" t="inlineStr">
         <is>
-          <t>লাইলা বেগম</t>
+          <t>আলমাহ খাতুন</t>
         </is>
       </c>
       <c r="F526" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G526" s="3" t="inlineStr">
         <is>
-          <t>০২/০২/১৯৬৮</t>
+          <t>০২/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H526" s="5" t="inlineStr">
         <is>
-          <t>., পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>০৬১৯</t>
+          <t>০৬০৪</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
         <is>
-          <t>আবদুচ ছব্বর</t>
+          <t>মোহাম্মদ আবুল হাশেম</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৭১</t>
+          <t>১৫২৫৭২০০০২৪৭</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>ঠান্ডা মিয়া</t>
         </is>
       </c>
       <c r="E527" s="4" t="inlineStr">
         <is>
-          <t>কমরুলহার</t>
+          <t>লাইলা বেগম</t>
         </is>
       </c>
       <c r="F527" s="3" t="inlineStr">
@@ -22580,12 +22580,12 @@
       </c>
       <c r="G527" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৪</t>
+          <t>০২/০২/১৯৬৮</t>
         </is>
       </c>
       <c r="H527" s="5" t="inlineStr">
         <is>
-          <t>পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F823" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:২৪/০৮/২০০১</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G823" s="3" t="inlineStr">
@@ -35091,7 +35091,7 @@
       </c>
       <c r="F825" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০১/০১/২০০২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G825" s="3" t="inlineStr">
@@ -35133,7 +35133,7 @@
       </c>
       <c r="F826" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০৮/০৮/২০০১</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G826" s="3" t="inlineStr">
@@ -37275,7 +37275,7 @@
       </c>
       <c r="F877" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ২০/১০/১৯৭৮</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G877" s="3" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="F967" s="3" t="inlineStr">
         <is>
-          <t>দার্জি</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G967" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152572/152572_com_997_male_without_photo_57_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152572/152572_com_997_male_without_photo_57_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="38.5" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -19358,37 +19358,37 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>০৫২৬</t>
+          <t>০৫২৯</t>
         </is>
       </c>
       <c r="B451" s="4" t="inlineStr">
         <is>
-          <t>আবদুল শুকুর</t>
+          <t>মোহাম্মদ ফরহাদ হোসেন</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০১৬৩</t>
+          <t>১৫২৫৭২০০০১৭৩</t>
         </is>
       </c>
       <c r="D451" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>কামরুল ইসলাম</t>
         </is>
       </c>
       <c r="E451" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F451" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G451" s="3" t="inlineStr">
         <is>
-          <t>০৬/১১/১৯৭৭</t>
+          <t>০১/০২/১৯৯০</t>
         </is>
       </c>
       <c r="H451" s="5" t="inlineStr">
@@ -19400,37 +19400,37 @@
     <row r="452">
       <c r="A452" s="3" t="inlineStr">
         <is>
-          <t>০৫২৯</t>
+          <t>০৫২৬</t>
         </is>
       </c>
       <c r="B452" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফরহাদ হোসেন</t>
+          <t>আবদুল শুকুর</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০১৭৩</t>
+          <t>১৫২৫৭২০০০১৬৩</t>
         </is>
       </c>
       <c r="D452" s="4" t="inlineStr">
         <is>
-          <t>কামরুল ইসলাম</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E452" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F452" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G452" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৯০</t>
+          <t>০৬/১১/১৯৭৭</t>
         </is>
       </c>
       <c r="H452" s="5" t="inlineStr">
@@ -19694,227 +19694,227 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>০৮০৭</t>
+          <t>০৮৫৩</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা কামাল রিফাত</t>
+          <t>আরফাতুল ইসলাম</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৫৮৮</t>
+          <t>১৫২৫৭২০০০৬৪২</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>রফিক আহমেদ সিকদার</t>
+          <t>শফর মুল্লুক</t>
         </is>
       </c>
       <c r="E459" s="4" t="inlineStr">
         <is>
-          <t>নুরুম্মাহার বেগম</t>
+          <t>শজুকন নাহার বেগম</t>
         </is>
       </c>
       <c r="F459" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G459" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/২০০২</t>
+          <t>০১/১০/২০০৬</t>
         </is>
       </c>
       <c r="H459" s="5" t="inlineStr">
         <is>
-          <t>১৬৫, দর্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৭, দর্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>০৮৫৩</t>
+          <t>০৭৬৭</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
         <is>
-          <t>আরফাতুল ইসলাম</t>
+          <t>মোহাম্মদ আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৪২</t>
+          <t>১৫২৫৭২০০০৫৪১</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>শফর মুল্লুক</t>
+          <t>শামশুল ইসলাম</t>
         </is>
       </c>
       <c r="E460" s="4" t="inlineStr">
         <is>
-          <t>শজুকন নাহার বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F460" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G460" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/২০০৬</t>
+          <t>১১/০১/২০০১</t>
         </is>
       </c>
       <c r="H460" s="5" t="inlineStr">
         <is>
-          <t>২৭৭, দর্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭৪, দর্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>০৭৯৩</t>
+          <t>০১৪২</t>
         </is>
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>আবু ওমর</t>
+          <t>কবির আহমদ</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৫৭০</t>
+          <t>১৫২৫৭২১৫৮৮৪৩</t>
         </is>
       </c>
       <c r="D461" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুছা</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E461" s="4" t="inlineStr">
         <is>
-          <t>জুনি আরা বেগম</t>
+          <t>মাহমুনা খাতুন</t>
         </is>
       </c>
       <c r="F461" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G461" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/২০০২</t>
+          <t>১২/০৩/১৯৫৭</t>
         </is>
       </c>
       <c r="H461" s="5" t="inlineStr">
         <is>
-          <t>১৭৬, দর্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
         <is>
-          <t>০৭৬৭</t>
+          <t>০১৩৫</t>
         </is>
       </c>
       <c r="B462" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরিফুল ইসলাম</t>
+          <t>মোঃ বশির আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৫৪১</t>
+          <t>১৫২৫৭২১৫৮৮১৭</t>
         </is>
       </c>
       <c r="D462" s="4" t="inlineStr">
         <is>
-          <t>শামশুল ইসলাম</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E462" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>মাইমুনা খাতুন</t>
         </is>
       </c>
       <c r="F462" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G462" s="3" t="inlineStr">
         <is>
-          <t>১১/০১/২০০১</t>
+          <t>১০/১০/১৯৬১</t>
         </is>
       </c>
       <c r="H462" s="5" t="inlineStr">
         <is>
-          <t>১৭৪, দর্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>০৭২২</t>
+          <t>০১৫৫</t>
         </is>
       </c>
       <c r="B463" s="4" t="inlineStr">
         <is>
-          <t>আরফাত সিকদার</t>
+          <t>মোঃ ফরিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৪৬০</t>
+          <t>১৫২৫৭২১৫৮৮৫৬</t>
         </is>
       </c>
       <c r="D463" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বশির আহমেদ সিকদার</t>
+          <t>ফৌজুল কবির</t>
         </is>
       </c>
       <c r="E463" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F463" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শিক্ষক</t>
         </is>
       </c>
       <c r="G463" s="3" t="inlineStr">
         <is>
-          <t>১৬/০২/১৯৯৪</t>
+          <t>০৯/০৫/১৯৮৫</t>
         </is>
       </c>
       <c r="H463" s="5" t="inlineStr">
         <is>
-          <t>দর্জিপাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>০১৩৫</t>
+          <t>০১৪৬</t>
         </is>
       </c>
       <c r="B464" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বশির আহমেদ সিকদার</t>
+          <t>মোঃ শফিক আহমদ</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮১৭</t>
+          <t>১৫২৫৭২১৫৮৮৪৭</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
@@ -19924,17 +19924,17 @@
       </c>
       <c r="E464" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা খাতুন</t>
+          <t>মাহমুনা খাতুন</t>
         </is>
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/১৯৬১</t>
+          <t>০৪/০১/১৯৬৪</t>
         </is>
       </c>
       <c r="H464" s="5" t="inlineStr">
@@ -19946,27 +19946,27 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>০১৪২</t>
+          <t>০১৩৭</t>
         </is>
       </c>
       <c r="B465" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমদ</t>
+          <t>মোহাম্মদ উল্লাহ</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৪৩</t>
+          <t>১৫২৫৭২১৫৮৮২৬</t>
         </is>
       </c>
       <c r="D465" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>ছারামত আলী</t>
         </is>
       </c>
       <c r="E465" s="4" t="inlineStr">
         <is>
-          <t>মাহমুনা খাতুন</t>
+          <t>মোহলেনা খাতুন</t>
         </is>
       </c>
       <c r="F465" s="3" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="G465" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৫৭</t>
+          <t>১২/০৩/১৯৬১</t>
         </is>
       </c>
       <c r="H465" s="5" t="inlineStr">
@@ -19988,37 +19988,37 @@
     <row r="466">
       <c r="A466" s="3" t="inlineStr">
         <is>
-          <t>০১৫৫</t>
+          <t>০১৬৪</t>
         </is>
       </c>
       <c r="B466" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফরিদুল ইসলাম</t>
+          <t>আব্বাস আলী</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৫৬</t>
+          <t>১৫২৫৭২১৫৮৮৮৪</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>ফৌজুল কবির</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E466" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>জন্নত আরা বেগম</t>
         </is>
       </c>
       <c r="F466" s="3" t="inlineStr">
         <is>
-          <t>শিক্ষক</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G466" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৫/১৯৮৫</t>
+          <t>১২/০৫/১৯৮৬</t>
         </is>
       </c>
       <c r="H466" s="5" t="inlineStr">
@@ -20030,37 +20030,37 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>০১৩৭</t>
+          <t>০১৪৫</t>
         </is>
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ উল্লাহ</t>
+          <t>শাহজাহান বাদশা</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮২৬</t>
+          <t>১৫২৫৭২১৫৮৮৪৬</t>
         </is>
       </c>
       <c r="D467" s="4" t="inlineStr">
         <is>
-          <t>ছারামত আলী</t>
+          <t>আমিনুল হক</t>
         </is>
       </c>
       <c r="E467" s="4" t="inlineStr">
         <is>
-          <t>মোহলেনা খাতুন</t>
+          <t>বিলকিছ আরা বেগম</t>
         </is>
       </c>
       <c r="F467" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G467" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/১৯৬১</t>
+          <t>১২/১২/১৯৮৬</t>
         </is>
       </c>
       <c r="H467" s="5" t="inlineStr">
@@ -20072,37 +20072,37 @@
     <row r="468">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>০১৪৬</t>
+          <t>০১৩৪</t>
         </is>
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শফিক আহমদ</t>
+          <t>মোহাম্মদ ইউচ্চ</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৪৭</t>
+          <t>১৫২৫৭২১৫৮৮১৪</t>
         </is>
       </c>
       <c r="D468" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E468" s="4" t="inlineStr">
         <is>
-          <t>মাহমুনা খাতুন</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F468" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G468" s="3" t="inlineStr">
         <is>
-          <t>০৪/০১/১৯৬৪</t>
+          <t>১৫/০২/১৯৮২</t>
         </is>
       </c>
       <c r="H468" s="5" t="inlineStr">
@@ -20114,37 +20114,37 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>০১৪৫</t>
+          <t>০১৩৬</t>
         </is>
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>শাহজাহান বাদশা</t>
+          <t>রফিক আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৪৬</t>
+          <t>১৫২৫৭২১৫৮৮২১</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>আমিনুল হক</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E469" s="4" t="inlineStr">
         <is>
-          <t>বিলকিছ আরা বেগম</t>
+          <t>মায়মুনা খাতুন</t>
         </is>
       </c>
       <c r="F469" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G469" s="3" t="inlineStr">
         <is>
-          <t>১২/১২/১৯৮৬</t>
+          <t>০১/০২/১৯৬৫</t>
         </is>
       </c>
       <c r="H469" s="5" t="inlineStr">
@@ -20156,37 +20156,37 @@
     <row r="470">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>০১৩৪</t>
+          <t>০১৩৮</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউচ্চ</t>
+          <t>মোহাম্মদ মুছা</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮১৪</t>
+          <t>১৫২৫৭২১৫৮৮৩২</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>মোঃ সোলায়মান</t>
         </is>
       </c>
       <c r="E470" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F470" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G470" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৮২</t>
+          <t>১৩/০৫/১৯৬২</t>
         </is>
       </c>
       <c r="H470" s="5" t="inlineStr">
@@ -20198,37 +20198,37 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>০১৬৪</t>
+          <t>০১৬৬</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
         <is>
-          <t>আব্বাস আলী</t>
+          <t>কমরুল ইসলাম</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৮৪</t>
+          <t>১৫২৫৭২১৫৮৮৮৬</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>এনায়েত আলী</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>জন্নত আরা বেগম</t>
+          <t>সোয়াজান</t>
         </is>
       </c>
       <c r="F471" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G471" s="3" t="inlineStr">
         <is>
-          <t>১২/০৫/১৯৮৬</t>
+          <t>১২/০২/১৯৫৭</t>
         </is>
       </c>
       <c r="H471" s="5" t="inlineStr">
@@ -20240,27 +20240,27 @@
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
         <is>
-          <t>০১৩৮</t>
+          <t>০১৬৭</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুছা</t>
+          <t>মুহাম্মদ তাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৩২</t>
+          <t>১৫২৫৭২১৫৮৮৮৭</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সোলায়মান</t>
+          <t>কমরুল ইসলাম</t>
         </is>
       </c>
       <c r="E472" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F472" s="3" t="inlineStr">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="G472" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৫/১৯৬২</t>
+          <t>০৮/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H472" s="5" t="inlineStr">
@@ -20282,37 +20282,37 @@
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>০১৩৬</t>
+          <t>০১৭২</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>রফিক আহমেদ সিকদার</t>
+          <t>সফর মুল্লুক</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮২১</t>
+          <t>১৫২৫৭২১৫৮৯১০</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>সোলেমান</t>
         </is>
       </c>
       <c r="E473" s="4" t="inlineStr">
         <is>
-          <t>মায়মুনা খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F473" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G473" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬৫</t>
+          <t>১০/০২/১৯৬৭</t>
         </is>
       </c>
       <c r="H473" s="5" t="inlineStr">
@@ -20324,37 +20324,37 @@
     <row r="474">
       <c r="A474" s="3" t="inlineStr">
         <is>
-          <t>০১৬৬</t>
+          <t>০১৭৭</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
         <is>
-          <t>কমরুল ইসলাম</t>
+          <t>সাতার সিকদার</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৮৬</t>
+          <t>১৫২৫৭২১৫৮৯১৭</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>এনায়েত আলী</t>
+          <t>আলী আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="E474" s="4" t="inlineStr">
         <is>
-          <t>সোয়াজান</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F474" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G474" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৫৭</t>
+          <t>১১/০৫/১৯৭৪</t>
         </is>
       </c>
       <c r="H474" s="5" t="inlineStr">
@@ -20408,168 +20408,168 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>০১৬৭</t>
+          <t>০৬১৭</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ তাজুল ইসলাম</t>
+          <t>সাদাম হোছাইন</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৮৮৭</t>
+          <t>১৫২৫৭২০০০২৬৯</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>কমরুল ইসলাম</t>
+          <t>আলী আহমেদ</t>
         </is>
       </c>
       <c r="E476" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F476" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G476" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/১৯৮৭</t>
+          <t>২২/১২/১৯৯৫</t>
         </is>
       </c>
       <c r="H476" s="5" t="inlineStr">
         <is>
-          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., দর্জিস পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>০১৭৭</t>
+          <t>০৮০৭</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>সাতার সিকদার</t>
+          <t>মোস্তফা কামাল রিফাত</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৯১৭</t>
+          <t>১৫২৫৭২০০০৫৮৮</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ সিকদার</t>
+          <t>রফিক আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="E477" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>নুরুম্মাহার বেগম</t>
         </is>
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
         <is>
-          <t>১১/০৫/১৯৭৪</t>
+          <t>০২/০৬/২০০২</t>
         </is>
       </c>
       <c r="H477" s="5" t="inlineStr">
         <is>
-          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৬৫, দার্জি পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>০১৭২</t>
+          <t>০৭৯৩</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>সফর মুল্লুক</t>
+          <t>আবু ওমর</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৮৯১০</t>
+          <t>১৫২৫৭২০০০৫৭০</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>সোলেমান</t>
+          <t>মোহাম্মদ মুছা</t>
         </is>
       </c>
       <c r="E478" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>জুনি আরা বেগম</t>
         </is>
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>দার্জি</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৬৭</t>
+          <t>০২/০১/২০০২</t>
         </is>
       </c>
       <c r="H478" s="5" t="inlineStr">
         <is>
-          <t>দর্জির পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭৬, দার্জি পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>০৬১৭</t>
+          <t>০৭২২</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>সাদাম হোছাইন</t>
+          <t>আরফাত সিকদার</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৬৯</t>
+          <t>১৫২৫৭২০০০৪৬০</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ</t>
+          <t>মোঃ বশির আহমেদ সিকদার</t>
         </is>
       </c>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G479" s="3" t="inlineStr">
         <is>
-          <t>২২/১২/১৯৯৫</t>
+          <t>১৬/০২/১৯৯৪</t>
         </is>
       </c>
       <c r="H479" s="5" t="inlineStr">
         <is>
-          <t>., দর্জিস পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>দার্জিপাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -20618,37 +20618,37 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০২৮৫</t>
+          <t>০২৫২</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>মজিবুর রহমান</t>
+          <t>নাজিম উদ্দীন</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯২৫৫</t>
+          <t>১৫২৫৭২১৫৯১৬৫</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>মকবুল আহমদ</t>
+          <t>বদিউল আলম</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>আচিয়া বেগম</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৬৯</t>
+          <t>০১/০৬/১৯৭৯</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,37 +20660,37 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০২৫৫</t>
+          <t>০২৫৩</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল বশর</t>
+          <t>রেজাউল হক</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৭৬</t>
+          <t>১৫২৫৭২১৫৯১৬৯</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>মকবুল আহমেদ</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>আঁচিয়া খাতুন</t>
+          <t>জাহেদা বেগম</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৭৫</t>
+          <t>০১/০১/১৯৯০</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,37 +20702,37 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০২৫৩</t>
+          <t>০২৫৪</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>রেজাউল হক</t>
+          <t>নাছির উদ্দিন</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৬৯</t>
+          <t>১৫২৫৭২১৫৯১৭০</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>ফরোখ আহমেদ</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>জাহেদা বেগম</t>
+          <t>মাহবুবা বেগম</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯০</t>
+          <t>০১/০৭/১৯৭০</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
@@ -20744,37 +20744,37 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>০২৫২</t>
+          <t>০২৫৫</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>নাজিম উদ্দীন</t>
+          <t>মোহাম্মদ আবুল বশর</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৬৫</t>
+          <t>১৫২৫৭২১৫৯১৭৬</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>বদিউল আলম</t>
+          <t>মকবুল আহমেদ</t>
         </is>
       </c>
       <c r="E484" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>আঁচিয়া খাতুন</t>
         </is>
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৭৯</t>
+          <t>০১/০৩/১৯৭৫</t>
         </is>
       </c>
       <c r="H484" s="5" t="inlineStr">
@@ -20786,37 +20786,37 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>০২৫৪</t>
+          <t>০২৮৫</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দিন</t>
+          <t>মজিবুর রহমান</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯১৭০</t>
+          <t>১৫২৫৭২১৫৯২৫৫</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>ফরোখ আহমেদ</t>
+          <t>মকবুল আহমদ</t>
         </is>
       </c>
       <c r="E485" s="4" t="inlineStr">
         <is>
-          <t>মাহবুবা বেগম</t>
+          <t>আচিয়া বেগম</t>
         </is>
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৭০</t>
+          <t>০১/০১/১৯৬৯</t>
         </is>
       </c>
       <c r="H485" s="5" t="inlineStr">
@@ -20912,37 +20912,37 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>০৬৪৪</t>
+          <t>০২৭২</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আনাস</t>
+          <t>মোহাং ইছমাইল</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৩১১</t>
+          <t>১৫২৫৭২১৫৯২৩১</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>ছিদিক আহমদ</t>
+          <t>কালা মিয়া</t>
         </is>
       </c>
       <c r="E488" s="4" t="inlineStr">
         <is>
-          <t>শিরিন আক্তার</t>
+          <t>ছমুদা বেগম</t>
         </is>
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G488" s="3" t="inlineStr">
         <is>
-          <t>১১/১১/১৯৯৮</t>
+          <t>০৩/০৭/১৯৬২</t>
         </is>
       </c>
       <c r="H488" s="5" t="inlineStr">
@@ -20954,37 +20954,37 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>০২৭২</t>
+          <t>০৬৪৪</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>মোহাং ইছমাইল</t>
+          <t>মুহাম্মদ আনাস</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯২৩১</t>
+          <t>১৫২৫৭২০০০৩১১</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>কালা মিয়া</t>
+          <t>ছিদিক আহমদ</t>
         </is>
       </c>
       <c r="E489" s="4" t="inlineStr">
         <is>
-          <t>ছমুদা বেগম</t>
+          <t>শিরিন আক্তার</t>
         </is>
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৭/১৯৬২</t>
+          <t>১১/১১/১৯৯৮</t>
         </is>
       </c>
       <c r="H489" s="5" t="inlineStr">
@@ -20996,17 +20996,17 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>০৮১২</t>
+          <t>০৮১১</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাকিব</t>
+          <t>মোহাম্মদ আকিল</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২৬৪৭১২৭</t>
+          <t>১৫২৫৭২৬৪৭১২৬</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="G490" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৯৭</t>
+          <t>০১/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="H490" s="5" t="inlineStr">
@@ -21038,17 +21038,17 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>০৮১১</t>
+          <t>০৮১২</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আকিল</t>
+          <t>মোহাম্মদ সাকিব</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২৬৪৭১২৬</t>
+          <t>১৫২৫৭২৬৪৭১২৭</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="G491" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৬</t>
+          <t>০৫/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H491" s="5" t="inlineStr">
@@ -21710,69 +21710,69 @@
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>০৮২৫</t>
+          <t>০৮৫২</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
         <is>
-          <t>হদয় কান্তি নাথ</t>
+          <t>নিতাই কান্তি নাথ</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০৫৯৮</t>
+          <t>১৫২৫৭২০০০৬৪০</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>সুধীর কান্তি নাথ</t>
+          <t>সুবীর কান্তি নাথ</t>
         </is>
       </c>
       <c r="E507" s="4" t="inlineStr">
         <is>
-          <t>অর্চনা নাথ</t>
+          <t>লিলি বালা নাথ</t>
         </is>
       </c>
       <c r="F507" s="3" t="inlineStr">
         <is>
-          <t>মিষ্টি</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G507" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/২০০৪</t>
+          <t>০১/০৫/২০০৬</t>
         </is>
       </c>
       <c r="H507" s="5" t="inlineStr">
         <is>
-          <t>৫, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪২, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
         <is>
-          <t>০৮১৭</t>
+          <t>০৬৩১</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>আকাশ কান্তি সমদার</t>
+          <t>রাসেল নাথ</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০০৫৪</t>
+          <t>১৫২৫৭২০০০২৮৮</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>অরুণ সমদার</t>
+          <t>পরিমল কান্তি নাথ</t>
         </is>
       </c>
       <c r="E508" s="4" t="inlineStr">
         <is>
-          <t>কৃষ্ণা সমদার</t>
+          <t>জনু বালা নাথ</t>
         </is>
       </c>
       <c r="F508" s="3" t="inlineStr">
@@ -21782,39 +21782,39 @@
       </c>
       <c r="G508" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/২০০৫</t>
+          <t>১০/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="H508" s="5" t="inlineStr">
         <is>
-          <t>৪১, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>০৬৩১</t>
+          <t>০৮৬০</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
         <is>
-          <t>রাসেল নাথ</t>
+          <t>নয়ন কান্তি নাথ</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৮৮</t>
+          <t>১৫২৫৭২০০০৬৫০</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>পরিমল কান্তি নাথ</t>
+          <t>মিলন কান্তি নাথ</t>
         </is>
       </c>
       <c r="E509" s="4" t="inlineStr">
         <is>
-          <t>জনু বালা নাথ</t>
+          <t>মেরী নাথ</t>
         </is>
       </c>
       <c r="F509" s="3" t="inlineStr">
@@ -21824,96 +21824,96 @@
       </c>
       <c r="G509" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৯৬</t>
+          <t>০১/০৬/২০০৬</t>
         </is>
       </c>
       <c r="H509" s="5" t="inlineStr">
         <is>
-          <t>নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪১, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="3" t="inlineStr">
         <is>
-          <t>০৮৮০</t>
+          <t>০৮৬১</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
         <is>
-          <t>কার্তিক কান্তি নাথ</t>
+          <t>জয়েল কান্তি নাথ</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২৬৪৭১৪৬</t>
+          <t>১৫২৫৭২০০০৬৫২</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>বিমল কান্তি নাথ</t>
+          <t>কৃষ্ণ হরি নাথ</t>
         </is>
       </c>
       <c r="E510" s="4" t="inlineStr">
         <is>
-          <t>মঞ্জু বালা নাথ</t>
+          <t>নিয়তী বালা নাথ</t>
         </is>
       </c>
       <c r="F510" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G510" s="3" t="inlineStr">
         <is>
-          <t>১২/০৩/২০০১</t>
+          <t>০২/০৮/২০০৬</t>
         </is>
       </c>
       <c r="H510" s="5" t="inlineStr">
         <is>
-          <t>১০, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৯, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>০৮৬১</t>
+          <t>০৮২৫</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
         <is>
-          <t>জয়েল কান্তি নাথ</t>
+          <t>হদয় কান্তি নাথ</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৫২</t>
+          <t>১৫২৫৭২০০০০৫৯৮</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>কৃষ্ণ হরি নাথ</t>
+          <t>সুধীর কান্তি নাথ</t>
         </is>
       </c>
       <c r="E511" s="4" t="inlineStr">
         <is>
-          <t>নিয়তী বালা নাথ</t>
+          <t>অর্চনা নাথ</t>
         </is>
       </c>
       <c r="F511" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>মিষ্টি</t>
         </is>
       </c>
       <c r="G511" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/২০০৬</t>
+          <t>০১/০২/২০০৪</t>
         </is>
       </c>
       <c r="H511" s="5" t="inlineStr">
         <is>
-          <t>৪৯, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21962,27 +21962,27 @@
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>০৮৬০</t>
+          <t>০৮১৭</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>নয়ন কান্তি নাথ</t>
+          <t>আকাশ কান্তি সমদার</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৫০</t>
+          <t>১৫২৫৭২০০০০০৫৪</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>মিলন কান্তি নাথ</t>
+          <t>অরুণ সমদার</t>
         </is>
       </c>
       <c r="E513" s="4" t="inlineStr">
         <is>
-          <t>মেরী নাথ</t>
+          <t>কৃষ্ণা সমদার</t>
         </is>
       </c>
       <c r="F513" s="3" t="inlineStr">
@@ -21992,7 +21992,7 @@
       </c>
       <c r="G513" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/২০০৬</t>
+          <t>১০/০১/২০০৫</t>
         </is>
       </c>
       <c r="H513" s="5" t="inlineStr">
@@ -22004,126 +22004,126 @@
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>০৮৫২</t>
+          <t>০৮৮০</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>নিতাই কান্তি নাথ</t>
+          <t>কার্তিক কান্তি নাথ</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০৬৪০</t>
+          <t>১৫২৫৭২৬৪৭১৪৬</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>সুবীর কান্তি নাথ</t>
+          <t>বিমল কান্তি নাথ</t>
         </is>
       </c>
       <c r="E514" s="4" t="inlineStr">
         <is>
-          <t>লিলি বালা নাথ</t>
+          <t>মঞ্জু বালা নাথ</t>
         </is>
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/২০০৬</t>
+          <t>১২/০৩/২০০১</t>
         </is>
       </c>
       <c r="H514" s="5" t="inlineStr">
         <is>
-          <t>৪২, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১০, নাথ পাড়া, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>০৬৯৬</t>
+          <t>০৯৩২</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>রফেল নাথ</t>
+          <t>মিশাল কান্তি নাথ</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০৮১৬</t>
+          <t>১৫২৫৭২০০০০৬৭৭</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>ব্রজহরি নাথ</t>
+          <t>মুদুল কান্তি নাথ</t>
         </is>
       </c>
       <c r="E515" s="4" t="inlineStr">
         <is>
-          <t>মিত্রা বালা নাথ</t>
+          <t>কুসুম বালা দেবী</t>
         </is>
       </c>
       <c r="F515" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ড্রাইভার</t>
         </is>
       </c>
       <c r="G515" s="3" t="inlineStr">
         <is>
-          <t>১৭/০১/১৯৯৯</t>
+          <t>০৩/০৬/২০০৬</t>
         </is>
       </c>
       <c r="H515" s="5" t="inlineStr">
         <is>
-          <t>নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৭, নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>০৯৩২</t>
+          <t>০৬৯৬</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>মিশাল কান্তি নাথ</t>
+          <t>রফেল নাথ</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০০৬৭৭</t>
+          <t>১৫২৫৭২০০০০৮১৬</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>মুদুল কান্তি নাথ</t>
+          <t>ব্রজহরি নাথ</t>
         </is>
       </c>
       <c r="E516" s="4" t="inlineStr">
         <is>
-          <t>কুসুম বালা দেবী</t>
+          <t>মিত্রা বালা নাথ</t>
         </is>
       </c>
       <c r="F516" s="3" t="inlineStr">
         <is>
-          <t>ড্রাইভার</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G516" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/২০০৬</t>
+          <t>১৭/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="H516" s="5" t="inlineStr">
         <is>
-          <t>৪৭, নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>নাথ পাড়া, আদারচর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -22172,27 +22172,27 @@
     <row r="518">
       <c r="A518" s="3" t="inlineStr">
         <is>
-          <t>০২২১</t>
+          <t>০২২২</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ আবদুল খালেক</t>
+          <t>মোহাঃ গোলাম রাছুন</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯০৭৬</t>
+          <t>১৫২৫৭২১৫৯০৭৭</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>আজিজুর রহমান</t>
+          <t>মোহাঃ উমর মিয়া</t>
         </is>
       </c>
       <c r="E518" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া খাতুন</t>
+          <t>বেলওয়া খাতুন</t>
         </is>
       </c>
       <c r="F518" s="3" t="inlineStr">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="G518" s="3" t="inlineStr">
         <is>
-          <t>১৪/০৫/১৯৬২</t>
+          <t>২৮/০৫/১৯৭৫</t>
         </is>
       </c>
       <c r="H518" s="5" t="inlineStr">
@@ -22214,27 +22214,27 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>০২২২</t>
+          <t>০২২১</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ গোলাম রাছুন</t>
+          <t>মোহাঃ আবদুল খালেক</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২১৫৯০৭৭</t>
+          <t>১৫২৫৭২১৫৯০৭৬</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ উমর মিয়া</t>
+          <t>আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E519" s="4" t="inlineStr">
         <is>
-          <t>বেলওয়া খাতুন</t>
+          <t>হাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F519" s="3" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="G519" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৫/১৯৭৫</t>
+          <t>১৪/০৫/১৯৬২</t>
         </is>
       </c>
       <c r="H519" s="5" t="inlineStr">
@@ -22466,37 +22466,37 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>০৬১৯</t>
+          <t>০৬২১</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>আবদুচ ছব্বর</t>
+          <t>মোহাম্মদ ইব্রাহীম</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৭১</t>
+          <t>১৫২৫৭২০০০২৭৪</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="E525" s="4" t="inlineStr">
         <is>
-          <t>কমরুলহার</t>
+          <t>আলমাহ খাতুন</t>
         </is>
       </c>
       <c r="F525" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G525" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৪</t>
+          <t>০২/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H525" s="5" t="inlineStr">
@@ -22508,69 +22508,69 @@
     <row r="526">
       <c r="A526" s="3" t="inlineStr">
         <is>
-          <t>০৬২১</t>
+          <t>০৬০৪</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহীম</t>
+          <t>মোহাম্মদ আবুল হাশেম</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৭৪</t>
+          <t>১৫২৫৭২০০০২৪৭</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>ঠান্ডা মিয়া</t>
         </is>
       </c>
       <c r="E526" s="4" t="inlineStr">
         <is>
-          <t>আলমাহ খাতুন</t>
+          <t>লাইলা বেগম</t>
         </is>
       </c>
       <c r="F526" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G526" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/১৯৮৬</t>
+          <t>০২/০২/১৯৬৮</t>
         </is>
       </c>
       <c r="H526" s="5" t="inlineStr">
         <is>
-          <t>পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>০৬০৪</t>
+          <t>০৬১৯</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল হাশেম</t>
+          <t>আবদুচ ছব্বর</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৭২০০০২৪৭</t>
+          <t>১৫২৫৭২০০০২৭১</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>ঠান্ডা মিয়া</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E527" s="4" t="inlineStr">
         <is>
-          <t>লাইলা বেগম</t>
+          <t>কমরুলহার</t>
         </is>
       </c>
       <c r="F527" s="3" t="inlineStr">
@@ -22580,12 +22580,12 @@
       </c>
       <c r="G527" s="3" t="inlineStr">
         <is>
-          <t>০২/০২/১৯৬৮</t>
+          <t>০১/০১/১৯৯৪</t>
         </is>
       </c>
       <c r="H527" s="5" t="inlineStr">
         <is>
-          <t>., পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>পশ্চিম আদার চর, আদার চর, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F823" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:২৪/০৮/২০০১</t>
         </is>
       </c>
       <c r="G823" s="3" t="inlineStr">
@@ -35091,7 +35091,7 @@
       </c>
       <c r="F825" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/০১/২০০২</t>
         </is>
       </c>
       <c r="G825" s="3" t="inlineStr">
@@ -35133,7 +35133,7 @@
       </c>
       <c r="F826" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০৮/০৮/২০০১</t>
         </is>
       </c>
       <c r="G826" s="3" t="inlineStr">
@@ -37275,7 +37275,7 @@
       </c>
       <c r="F877" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ২০/১০/১৯৭৮</t>
         </is>
       </c>
       <c r="G877" s="3" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="F967" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জি</t>
         </is>
       </c>
       <c r="G967" s="3" t="inlineStr">
